--- a/Output_Backtest/Mean-CVaR_drawdowns.xlsx
+++ b/Output_Backtest/Mean-CVaR_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.009405907967036331</v>
+        <v>-0.009789293993826331</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.02550669719765808</v>
+        <v>-0.02624293594936522</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.02539457838718173</v>
+        <v>-0.02656527586533042</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.01828448498877144</v>
+        <v>-0.0192842420043019</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.004044668761777239</v>
+        <v>-0.003497120088534262</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>-0.0009242277552900541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.01427621826450629</v>
+        <v>-0.01346459352860438</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.03851719722646098</v>
+        <v>-0.03673886819642725</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.03325791953041596</v>
+        <v>-0.03054066554249104</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.02656662991798949</v>
+        <v>-0.02607056930959184</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.01538350255127757</v>
+        <v>-0.01497855100891155</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.01362444691298653</v>
+        <v>-0.01490044148580343</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>-0.002444744393498383</v>
+        <v>-0.005401480078843319</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>-0.0005930546502203207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>-0.001761951834112028</v>
+        <v>-0.003428976909949723</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.01565392808554771</v>
+        <v>-0.01834135958077812</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.01190845847898226</v>
+        <v>-0.01481681335609737</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.01871235999487021</v>
+        <v>-0.01971736641660616</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.002142742811610194</v>
+        <v>-0.009399768306441221</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>-0.008030357588174837</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>-0.0008135893466344146</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.00959234832020495</v>
+        <v>-0.007942620592882949</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.04235053792443252</v>
+        <v>-0.04011613611864622</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.03560265396525393</v>
+        <v>-0.03439645796249106</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.06327682192383419</v>
+        <v>-0.05478403818851529</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.02475865870029834</v>
+        <v>-0.01027438443248802</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.0184166323045885</v>
+        <v>-0.009794670473138084</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>-0.005384230492238872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.006351130762279681</v>
+        <v>-0.006459939137385492</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.007065266492575071</v>
+        <v>-0.00698995171272671</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.02198875765394862</v>
+        <v>-0.0536446023850319</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>-0.02710215685116056</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>-0.01238480323070183</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>-0.00215163094568053</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.02115649807476411</v>
+        <v>-0.02116289855903179</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.03206366060558175</v>
+        <v>-0.03214282002656303</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>-0.005485704148076676</v>
+        <v>-0.006645247130451209</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.007937800252303817</v>
+        <v>-0.008120881695213493</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.02303913774469927</v>
+        <v>-0.02355694915741705</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.03004713071427807</v>
+        <v>-0.03352958389036732</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.01567876734717755</v>
+        <v>-0.01990097672750637</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.004300119126264971</v>
+        <v>-0.009236228376083469</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>-0.003027362925892397</v>
+        <v>-0.006858519913686449</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.01587277253799496</v>
+        <v>-0.016301042315609</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01175199072287913</v>
+        <v>-0.01463544541183239</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01711280246071507</v>
+        <v>-0.01720034792240971</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.005660843578950469</v>
+        <v>-0.006525185456583061</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.024607168496764</v>
+        <v>-0.02920230473104485</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.01746796623998846</v>
+        <v>-0.02255136761585921</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.03313899897380541</v>
+        <v>-0.03849661719171242</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.06508985865311727</v>
+        <v>-0.07029743806150746</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.06066290943295734</v>
+        <v>-0.06589608265119359</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.07650609485524926</v>
+        <v>-0.08165092694614097</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.07469004191881563</v>
+        <v>-0.07984507462879849</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1070285869282257</v>
+        <v>-0.1120032600345092</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1447071750788765</v>
+        <v>-0.1494719561683874</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1439885695697575</v>
+        <v>-0.1487571678351352</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1055709503198116</v>
+        <v>-0.1105534416334896</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1046368865058791</v>
+        <v>-0.1096247622475393</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.06912983594393497</v>
+        <v>-0.07431547018339073</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.09748730785631349</v>
+        <v>-0.1025149975850802</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.06461779190177896</v>
+        <v>-0.06982855907780236</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.05857500459572205</v>
+        <v>-0.06381940569638811</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.06771706690958665</v>
+        <v>-0.0729105598726459</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.06382465638288574</v>
+        <v>-0.06968936626203341</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.05062362093589829</v>
+        <v>-0.05709545979316492</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.06025150153062249</v>
+        <v>-0.06592475152063315</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.08316875070158426</v>
+        <v>-0.08919990662796402</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.07112253818190105</v>
+        <v>-0.07707280904204995</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.03808859637150452</v>
+        <v>-0.04384503432604396</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.01426501649817473</v>
+        <v>-0.01984286463005332</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.02215424784394661</v>
+        <v>-0.02718526608730359</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.01972711608505281</v>
+        <v>-0.02540017172026754</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.004320519886188797</v>
+        <v>-0.004276654427540918</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.01951352380291474</v>
+        <v>-0.01953409031612986</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Mean-CVaR_drawdowns.xlsx
+++ b/Output_Backtest/Mean-CVaR_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.009789293993826331</v>
+        <v>-0.009789600011947064</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.02624293594936522</v>
+        <v>-0.02624449496870729</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.02656527586533042</v>
+        <v>-0.026302195852967</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.0192842420043019</v>
+        <v>-0.01887165251857381</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.003497120088534262</v>
+        <v>-0.00420373258965489</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-0.000522778972024627</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.01346459352860438</v>
+        <v>-0.01437145109216335</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.03673886819642725</v>
+        <v>-0.03755248726608831</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.03054066554249104</v>
+        <v>-0.03135094480185493</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.02607056930959184</v>
+        <v>-0.02679746977982942</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.01497855100891155</v>
+        <v>-0.01564352935558521</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.01490044148580343</v>
+        <v>-0.01557202691563807</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>-0.005401480078843319</v>
+        <v>-0.006117874372406822</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>-0.002284269589226812</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>-0.003428976909949723</v>
+        <v>-0.005697971640613535</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.01834135958077812</v>
+        <v>-0.02141258297474391</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.01481681335609737</v>
+        <v>-0.01318629835932859</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.01971736641660616</v>
+        <v>-0.01806629517682031</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.009399768306441221</v>
+        <v>-0.007555387608843641</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.008030357588174837</v>
+        <v>-0.00628847499125588</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>-0.0008135893466344146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.007942620592882949</v>
+        <v>-0.006467199902664427</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.04011613611864622</v>
+        <v>-0.02374717891616784</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.03439645796249106</v>
+        <v>-0.01977363048891663</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.05478403818851529</v>
+        <v>-0.03837176676245056</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.01027438443248802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.009794670473138084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.006459939137385492</v>
+        <v>-0.003998926762777851</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.00698995171272671</v>
+        <v>-0.007088989708006485</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.0536446023850319</v>
+        <v>-0.02200945802539089</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>-0.02710215685116056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>-0.01238480323070183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>-0.00215163094568053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.02116289855903179</v>
+        <v>-0.01592822548075962</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.03214282002656303</v>
+        <v>-0.02742513934474604</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>-0.006645247130451209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.008120881695213493</v>
+        <v>-0.008868736199034591</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.02355694915741705</v>
+        <v>-0.0246446865058361</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.03352958389036732</v>
+        <v>-0.02938164734148254</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.01990097672750637</v>
+        <v>-0.01522365506393598</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.009236228376083469</v>
+        <v>-0.008882326741384838</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>-0.006858519913686449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.016301042315609</v>
+        <v>-0.01583607281921744</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01463544541183239</v>
+        <v>-0.01112120507563847</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01720034792240971</v>
+        <v>-0.0150635340236657</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.006525185456583061</v>
+        <v>-0.004957897121119908</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.02920230473104485</v>
+        <v>-0.02821196565248761</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.02255136761585921</v>
+        <v>-0.02990453982345436</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.03849661719171242</v>
+        <v>-0.04903590924659286</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.07029743806150746</v>
+        <v>-0.08095611495257336</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.06589608265119359</v>
+        <v>-0.07660328157935606</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.08165092694614097</v>
+        <v>-0.09217759717160576</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.07984507462879849</v>
+        <v>-0.09039235670946182</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1120032600345092</v>
+        <v>-0.1221820852046355</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1494719561683874</v>
+        <v>-0.1592212896642915</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1487571678351352</v>
+        <v>-0.1585147430569322</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1105534416334896</v>
+        <v>-0.1207488817470659</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1096247622475393</v>
+        <v>-0.119830662461895</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.07431547018339073</v>
+        <v>-0.08492621111714085</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1025149975850802</v>
+        <v>-0.1128025037780792</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.06982855907780236</v>
+        <v>-0.08049062564856035</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.06381940569638811</v>
+        <v>-0.07455045854221644</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.0729105598726459</v>
+        <v>-0.08353750996117494</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.06968936626203341</v>
+        <v>-0.08035329159121991</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.05709545979316492</v>
+        <v>-0.06790376713738275</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.06592475152063315</v>
+        <v>-0.07663180998136011</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.08919990662796402</v>
+        <v>-0.09964006602456295</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.07707280904204995</v>
+        <v>-0.08765202001092302</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.04384503432604396</v>
+        <v>-0.05480522738054214</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.01984286463005332</v>
+        <v>-0.0310783064367339</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.02718526608730359</v>
+        <v>-0.03833645992862052</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.02540017172026754</v>
+        <v>-0.0365718539352082</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>-0.005132647919136845</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.004276654427540918</v>
+        <v>-0.009387344768068609</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.01953409031612986</v>
+        <v>-0.01332973680686678</v>
       </c>
     </row>
   </sheetData>
